--- a/xls/CuadernoEvaluacionesCNNS2025.xlsx
+++ b/xls/CuadernoEvaluacionesCNNS2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insisuy-my.sharepoint.com/personal/tmezzano_insis_com_uy/Documents/Escritorio/cnns/calendario_2.0/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{0A24F881-84DB-4CA9-900E-4FB36A5E1987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B351BCB-6E9C-45C4-A6FA-9FA7FAD96CAE}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{0A24F881-84DB-4CA9-900E-4FB36A5E1987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{509D7772-E826-4601-A6F0-897DC6901D2C}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lunes 01 septiembre
+      <t xml:space="preserve">Jueves 04 septiembre
 </t>
     </r>
     <r>
@@ -191,7 +191,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lunes 01 septiembre
+      <t xml:space="preserve">Jueves 04 septiembre
 </t>
     </r>
     <r>
@@ -206,7 +206,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lunes 01 septiembre
+      <t xml:space="preserve">Jueves 04 septiembre
 </t>
     </r>
     <r>
@@ -221,17 +221,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lunes 01 septiembre
+      <t xml:space="preserve">Jueves 04 septiembre
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>14</t>
     </r>
     <r>
       <rPr>
@@ -240,12 +231,102 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>:30 a 15:00</t>
+      <t>14:30 a 15:00</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Jueves 04 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15:00 a 15:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jueves 04 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15:30 a 16:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viernes 05 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11:00 a 11:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viernes 05 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11:30 a 12:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viernes 05 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12:00 a 12:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viernes 05 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12:30 a 13:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lunes 15 septiembre
 </t>
     </r>
     <r>
@@ -260,7 +341,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Jueves 04 septiembre
+      <t xml:space="preserve">Lunes 15 septiembre
 </t>
     </r>
     <r>
@@ -275,7 +356,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Jueves 04 septiembre
+      <t xml:space="preserve">Lunes 15 septiembre
 </t>
     </r>
     <r>
@@ -290,7 +371,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Jueves 04 septiembre
+      <t xml:space="preserve">Lunes 15 septiembre
 </t>
     </r>
     <r>
@@ -305,7 +386,187 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Jueves 04 septiembre
+      <t xml:space="preserve">Lunes 29 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:00 a 13:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lunes 29 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:30 a 14:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lunes 29 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:00 a 14:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lunes 29 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:30 a 15:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lunes 08 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:00 a 13:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lunes 08 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:30 a 14:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lunes 08 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:00 a 14:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lunes 08 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:30 a 15:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jueves 11 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:00 a 13:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jueves 11 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:30 a 14:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jueves 11 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:00 a 14:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jueves 11 septiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:30 a 15:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jueves 11 septiembre
 </t>
     </r>
     <r>
@@ -320,7 +581,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Jueves 04 septiembre
+      <t xml:space="preserve">Jueves 11 septiembre
 </t>
     </r>
     <r>
@@ -335,7 +596,22 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Viernes 05 septiembre
+      <t xml:space="preserve">Viernes 12 setiembre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10:30 a 11:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Viernes 12 septiembre
 </t>
     </r>
     <r>
@@ -350,7 +626,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Viernes 05 septiembre
+      <t xml:space="preserve">Viernes 12 septiembre
 </t>
     </r>
     <r>
@@ -365,7 +641,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Viernes 05 septiembre
+      <t xml:space="preserve">Viernes 12 septiembre
 </t>
     </r>
     <r>
@@ -380,7 +656,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Viernes 05 septiembre
+      <t xml:space="preserve">Viernes 12 septiembre
 </t>
     </r>
     <r>
@@ -393,297 +669,12 @@
       <t>12:30 a 13:00</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lunes 15 septiembre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>13:00 a 13:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lunes 15 septiembre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>13:30 a 14:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lunes 15 septiembre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>14:00 a 14:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lunes 15 septiembre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>14:30 a 15:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lunes 29 septiembre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>13:00 a 13:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lunes 29 septiembre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>13:30 a 14:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lunes 29 septiembre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>14:00 a 14:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lunes 29 septiembre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>14:30 a 15:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jueves 09 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>13:00 a 13:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jueves 09 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>13:30 a 14:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jueves 09 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>14:00 a 14:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jueves 09 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>14:30 a 15:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jueves 09 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>15:00 a 15:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jueves 09 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>15:30 a 16:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Viernes 10 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10:30 a 11:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Viernes 10 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>11:00 a 11:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Viernes 10 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>11:30 a 12:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Viernes 10 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>12:00 a 12:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Viernes 10 octubre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>12:30 a 13:00</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -719,12 +710,6 @@
       <b/>
       <sz val="16"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -905,12 +890,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -918,6 +897,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2056,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:A120"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2071,43 +2056,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="15"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2138,12 +2123,12 @@
       <c r="M3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="N3" s="19"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2163,7 +2148,7 @@
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -2181,7 +2166,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
@@ -2199,7 +2184,7 @@
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2219,7 +2204,7 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2222,7 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
@@ -2254,8 +2239,8 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2275,7 +2260,7 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2278,7 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2311,7 +2296,7 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2331,7 +2316,7 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2349,7 +2334,7 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -2366,8 +2351,8 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2387,7 +2372,7 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2405,7 +2390,7 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2423,7 +2408,7 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -2443,7 +2428,7 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2461,7 +2446,7 @@
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="19"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
@@ -2478,9 +2463,9 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
-        <v>33</v>
+    <row r="22" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2499,7 +2484,7 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2517,7 +2502,7 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="19"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +2520,8 @@
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
-        <v>34</v>
+      <c r="A25" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>18</v>
@@ -2555,7 +2540,7 @@
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
@@ -2573,7 +2558,7 @@
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="19"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="7" t="s">
         <v>20</v>
       </c>
@@ -2591,8 +2576,8 @@
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
-        <v>35</v>
+      <c r="A28" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>18</v>
@@ -2611,7 +2596,7 @@
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
@@ -2629,7 +2614,7 @@
       <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="19"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
         <v>20</v>
       </c>
@@ -2647,8 +2632,8 @@
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>36</v>
+      <c r="A31" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>18</v>
@@ -2667,7 +2652,7 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2685,7 +2670,7 @@
       <c r="N32" s="12"/>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="19"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
         <v>20</v>
       </c>
@@ -2703,8 +2688,8 @@
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>21</v>
+      <c r="A34" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>18</v>
@@ -2723,7 +2708,7 @@
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
@@ -2741,7 +2726,7 @@
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="19"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="7" t="s">
         <v>20</v>
       </c>
@@ -2758,9 +2743,9 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
-        <v>37</v>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>18</v>
@@ -2779,7 +2764,7 @@
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
@@ -2797,7 +2782,7 @@
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="19"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="7" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2800,8 @@
       <c r="N39" s="13"/>
     </row>
     <row r="40" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>38</v>
+      <c r="A40" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>18</v>
@@ -2835,7 +2820,7 @@
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
@@ -2853,7 +2838,7 @@
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="19"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="7" t="s">
         <v>20</v>
       </c>
@@ -2871,8 +2856,8 @@
       <c r="N42" s="13"/>
     </row>
     <row r="43" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
-        <v>39</v>
+      <c r="A43" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>18</v>
@@ -2891,7 +2876,7 @@
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="2" t="s">
         <v>19</v>
       </c>
@@ -2909,7 +2894,7 @@
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="19"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="7" t="s">
         <v>20</v>
       </c>
@@ -2927,8 +2912,8 @@
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
-        <v>40</v>
+      <c r="A46" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>18</v>
@@ -2947,7 +2932,7 @@
       <c r="N46" s="14"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="2" t="s">
         <v>19</v>
       </c>
@@ -2965,7 +2950,7 @@
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="19"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="7" t="s">
         <v>20</v>
       </c>
@@ -2983,8 +2968,8 @@
       <c r="N48" s="13"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
-        <v>41</v>
+      <c r="A49" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>18</v>
@@ -3003,7 +2988,7 @@
       <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="2" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3006,7 @@
       <c r="N50" s="12"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="19"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="7" t="s">
         <v>20</v>
       </c>
@@ -3039,8 +3024,8 @@
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
-        <v>42</v>
+      <c r="A52" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>18</v>
@@ -3059,7 +3044,7 @@
       <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="2" t="s">
         <v>19</v>
       </c>
@@ -3077,7 +3062,7 @@
       <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="19"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="7" t="s">
         <v>20</v>
       </c>
@@ -3095,8 +3080,8 @@
       <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
-        <v>43</v>
+      <c r="A55" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>18</v>
@@ -3115,7 +3100,7 @@
       <c r="N55" s="14"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="18"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
@@ -3133,7 +3118,7 @@
       <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="19"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="7" t="s">
         <v>20</v>
       </c>
@@ -3151,8 +3136,8 @@
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
-        <v>44</v>
+      <c r="A58" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>18</v>
@@ -3171,7 +3156,7 @@
       <c r="N58" s="14"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="2" t="s">
         <v>19</v>
       </c>
@@ -3189,7 +3174,7 @@
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="19"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="7" t="s">
         <v>20</v>
       </c>
@@ -3207,8 +3192,8 @@
       <c r="N60" s="13"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
-        <v>45</v>
+      <c r="A61" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>18</v>
@@ -3227,7 +3212,7 @@
       <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="2" t="s">
         <v>19</v>
       </c>
@@ -3245,7 +3230,7 @@
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="19"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="7" t="s">
         <v>20</v>
       </c>
@@ -3262,9 +3247,9 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
-        <v>46</v>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>18</v>
@@ -3283,7 +3268,7 @@
       <c r="N64" s="14"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="2" t="s">
         <v>19</v>
       </c>
@@ -3301,7 +3286,7 @@
       <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="19"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="7" t="s">
         <v>20</v>
       </c>
@@ -3318,9 +3303,9 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
     </row>
-    <row r="67" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="17" t="s">
-        <v>47</v>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>18</v>
@@ -3339,7 +3324,7 @@
       <c r="N67" s="14"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="2" t="s">
         <v>19</v>
       </c>
@@ -3357,7 +3342,7 @@
       <c r="N68" s="12"/>
     </row>
     <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="19"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="7" t="s">
         <v>20</v>
       </c>
@@ -3374,9 +3359,9 @@
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
-        <v>48</v>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>18</v>
@@ -3395,7 +3380,7 @@
       <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="2" t="s">
         <v>19</v>
       </c>
@@ -3413,7 +3398,7 @@
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="19"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="7" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3416,8 @@
       <c r="N72" s="13"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A73" s="17" t="s">
-        <v>22</v>
+      <c r="A73" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>18</v>
@@ -3451,7 +3436,7 @@
       <c r="N73" s="14"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A74" s="18"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="2" t="s">
         <v>19</v>
       </c>
@@ -3469,7 +3454,7 @@
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="19"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="7" t="s">
         <v>20</v>
       </c>
@@ -3487,8 +3472,8 @@
       <c r="N75" s="13"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A76" s="17" t="s">
-        <v>23</v>
+      <c r="A76" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>18</v>
@@ -3507,7 +3492,7 @@
       <c r="N76" s="14"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A77" s="18"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="2" t="s">
         <v>19</v>
       </c>
@@ -3525,7 +3510,7 @@
       <c r="N77" s="12"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="19"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="7" t="s">
         <v>20</v>
       </c>
@@ -3543,8 +3528,8 @@
       <c r="N78" s="13"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A79" s="17" t="s">
-        <v>24</v>
+      <c r="A79" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>18</v>
@@ -3563,7 +3548,7 @@
       <c r="N79" s="14"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A80" s="18"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="2" t="s">
         <v>19</v>
       </c>
@@ -3581,7 +3566,7 @@
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="19"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="7" t="s">
         <v>20</v>
       </c>
@@ -3599,8 +3584,8 @@
       <c r="N81" s="13"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
-        <v>25</v>
+      <c r="A82" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>18</v>
@@ -3619,7 +3604,7 @@
       <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -3637,7 +3622,7 @@
       <c r="N83" s="12"/>
     </row>
     <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="19"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="7" t="s">
         <v>20</v>
       </c>
@@ -3655,8 +3640,8 @@
       <c r="N84" s="13"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
-        <v>26</v>
+      <c r="A85" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>18</v>
@@ -3675,7 +3660,7 @@
       <c r="N85" s="14"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A86" s="18"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="2" t="s">
         <v>19</v>
       </c>
@@ -3693,7 +3678,7 @@
       <c r="N86" s="12"/>
     </row>
     <row r="87" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="19"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="7" t="s">
         <v>20</v>
       </c>
@@ -3711,8 +3696,8 @@
       <c r="N87" s="13"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A88" s="17" t="s">
-        <v>49</v>
+      <c r="A88" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>18</v>
@@ -3731,7 +3716,7 @@
       <c r="N88" s="14"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A89" s="18"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="2" t="s">
         <v>19</v>
       </c>
@@ -3749,7 +3734,7 @@
       <c r="N89" s="12"/>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="19"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="7" t="s">
         <v>20</v>
       </c>
@@ -3767,8 +3752,8 @@
       <c r="N90" s="13"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A91" s="17" t="s">
-        <v>50</v>
+      <c r="A91" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>18</v>
@@ -3787,7 +3772,7 @@
       <c r="N91" s="14"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A92" s="18"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="2" t="s">
         <v>19</v>
       </c>
@@ -3805,7 +3790,7 @@
       <c r="N92" s="12"/>
     </row>
     <row r="93" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="19"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="7" t="s">
         <v>20</v>
       </c>
@@ -3823,8 +3808,8 @@
       <c r="N93" s="13"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
-        <v>51</v>
+      <c r="A94" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>18</v>
@@ -3843,7 +3828,7 @@
       <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A95" s="18"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="2" t="s">
         <v>19</v>
       </c>
@@ -3861,7 +3846,7 @@
       <c r="N95" s="12"/>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="19"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="7" t="s">
         <v>20</v>
       </c>
@@ -3879,8 +3864,8 @@
       <c r="N96" s="13"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A97" s="17" t="s">
-        <v>52</v>
+      <c r="A97" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>18</v>
@@ -3899,7 +3884,7 @@
       <c r="N97" s="14"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A98" s="18"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="2" t="s">
         <v>19</v>
       </c>
@@ -3917,7 +3902,7 @@
       <c r="N98" s="12"/>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="19"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="7" t="s">
         <v>20</v>
       </c>
@@ -3935,8 +3920,8 @@
       <c r="N99" s="13"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A100" s="17" t="s">
-        <v>53</v>
+      <c r="A100" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>18</v>
@@ -3955,7 +3940,7 @@
       <c r="N100" s="14"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A101" s="18"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="2" t="s">
         <v>19</v>
       </c>
@@ -3973,7 +3958,7 @@
       <c r="N101" s="12"/>
     </row>
     <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="19"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="7" t="s">
         <v>20</v>
       </c>
@@ -3991,8 +3976,8 @@
       <c r="N102" s="13"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A103" s="17" t="s">
-        <v>54</v>
+      <c r="A103" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>18</v>
@@ -4011,7 +3996,7 @@
       <c r="N103" s="14"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A104" s="18"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="2" t="s">
         <v>19</v>
       </c>
@@ -4029,7 +4014,7 @@
       <c r="N104" s="12"/>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="19"/>
+      <c r="A105" s="17"/>
       <c r="B105" s="7" t="s">
         <v>20</v>
       </c>
@@ -4047,8 +4032,8 @@
       <c r="N105" s="13"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A106" s="17" t="s">
-        <v>55</v>
+      <c r="A106" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>18</v>
@@ -4067,7 +4052,7 @@
       <c r="N106" s="14"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A107" s="18"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="2" t="s">
         <v>19</v>
       </c>
@@ -4085,7 +4070,7 @@
       <c r="N107" s="12"/>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="19"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="7" t="s">
         <v>20</v>
       </c>
@@ -4103,8 +4088,8 @@
       <c r="N108" s="13"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A109" s="17" t="s">
-        <v>56</v>
+      <c r="A109" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>18</v>
@@ -4123,7 +4108,7 @@
       <c r="N109" s="14"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A110" s="18"/>
+      <c r="A110" s="16"/>
       <c r="B110" s="2" t="s">
         <v>19</v>
       </c>
@@ -4141,7 +4126,7 @@
       <c r="N110" s="12"/>
     </row>
     <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="19"/>
+      <c r="A111" s="17"/>
       <c r="B111" s="7" t="s">
         <v>20</v>
       </c>
@@ -4159,8 +4144,8 @@
       <c r="N111" s="13"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A112" s="17" t="s">
-        <v>57</v>
+      <c r="A112" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>18</v>
@@ -4179,7 +4164,7 @@
       <c r="N112" s="14"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A113" s="18"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="2" t="s">
         <v>19</v>
       </c>
@@ -4197,7 +4182,7 @@
       <c r="N113" s="12"/>
     </row>
     <row r="114" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="19"/>
+      <c r="A114" s="17"/>
       <c r="B114" s="7" t="s">
         <v>20</v>
       </c>
@@ -4215,8 +4200,8 @@
       <c r="N114" s="13"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A115" s="17" t="s">
-        <v>58</v>
+      <c r="A115" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>18</v>
@@ -4235,7 +4220,7 @@
       <c r="N115" s="14"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A116" s="18"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="2" t="s">
         <v>19</v>
       </c>
@@ -4253,7 +4238,7 @@
       <c r="N116" s="12"/>
     </row>
     <row r="117" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="19"/>
+      <c r="A117" s="17"/>
       <c r="B117" s="7" t="s">
         <v>20</v>
       </c>
@@ -4271,8 +4256,8 @@
       <c r="N117" s="13"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A118" s="17" t="s">
-        <v>59</v>
+      <c r="A118" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>18</v>
@@ -4291,7 +4276,7 @@
       <c r="N118" s="14"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A119" s="18"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="2" t="s">
         <v>19</v>
       </c>
@@ -4309,7 +4294,7 @@
       <c r="N119" s="12"/>
     </row>
     <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="19"/>
+      <c r="A120" s="17"/>
       <c r="B120" s="7" t="s">
         <v>20</v>
       </c>
@@ -4328,45 +4313,11 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A79:A81"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="D2:G2"/>
@@ -4374,6 +4325,40 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
